--- a/data/trans_dic/P70C3_R_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70C3_R_2023-Provincia-trans_dic.xlsx
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.01804435620359779</v>
+        <v>0.0128329413969071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.006688272030525076</v>
+        <v>0.006729134436161457</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01964131631577963</v>
+        <v>0.02175727859995402</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05260468965518045</v>
+        <v>0.05283773264460719</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03920742913673662</v>
+        <v>0.04208946224284934</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0811576472423633</v>
+        <v>0.0827544977480244</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1260732760521227</v>
+        <v>0.1323146882100624</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08655388407689947</v>
+        <v>0.08833879156428275</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06569307429801441</v>
+        <v>0.06389854218231508</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03559954561234967</v>
+        <v>0.03393271991426733</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06250982728684527</v>
+        <v>0.06066030294249098</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.16825480499013</v>
+        <v>0.1689977194336007</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1095288704289732</v>
+        <v>0.1034296330367616</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1230321207042057</v>
+        <v>0.1238125381683855</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08022285421592369</v>
+        <v>0.07642914966357733</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06322531826075518</v>
+        <v>0.06344980660663309</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08090056008384708</v>
+        <v>0.08312458151921773</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2083166247261609</v>
+        <v>0.2039547664337287</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1688181202559345</v>
+        <v>0.1648531906089758</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1662021421217125</v>
+        <v>0.166532811814867</v>
       </c>
     </row>
     <row r="16">
@@ -786,7 +786,7 @@
         <v>0.01556970871796036</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.01272389146122483</v>
+        <v>0.01272389146122482</v>
       </c>
     </row>
     <row r="17">
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003956721391753767</v>
+        <v>0.003941417411613645</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003712012629147601</v>
+        <v>0.005200114419313586</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05776631803631924</v>
+        <v>0.05651932020653776</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03826730274664953</v>
+        <v>0.03588783307382294</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0323272258317</v>
+        <v>0.03391070577470818</v>
       </c>
     </row>
     <row r="19">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1123669853157587</v>
+        <v>0.1096111659879412</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03790477423578253</v>
+        <v>0.04144907242133112</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09285938163980617</v>
+        <v>0.09446483391169432</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2281606262635062</v>
+        <v>0.2232727158372009</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1255323384583378</v>
+        <v>0.1289585182479362</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1682899950583032</v>
+        <v>0.1734909889912312</v>
       </c>
     </row>
     <row r="22">
@@ -893,10 +893,10 @@
         <v>0.02500578084040232</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05758142929001917</v>
+        <v>0.05758142929001916</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.04076222832834319</v>
+        <v>0.04076222832834318</v>
       </c>
     </row>
     <row r="23">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01067165139324523</v>
+        <v>0.0101266587368233</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03926216972531592</v>
+        <v>0.03904604696147937</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02743429160077843</v>
+        <v>0.02808231559933323</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05203661299851296</v>
+        <v>0.05112936822129122</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08060824891586796</v>
+        <v>0.08336249481360972</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05756163938753106</v>
+        <v>0.05822337623828775</v>
       </c>
     </row>
     <row r="25">
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.03730746603898329</v>
+        <v>0.03730746603898328</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.03624287033106366</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01909644514239124</v>
+        <v>0.02001484541542297</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02016667622263198</v>
+        <v>0.02069712816362757</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02370089773225504</v>
+        <v>0.02445780875122591</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06558866031259034</v>
+        <v>0.06280903057603521</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05898213088228527</v>
+        <v>0.05809858548415611</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05458242616659811</v>
+        <v>0.0527784681011806</v>
       </c>
     </row>
     <row r="28">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.0539594493052482</v>
+        <v>0.05395944930524819</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.05460620019918149</v>
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.04359302875320618</v>
+        <v>0.043044528259508</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.04581276039278368</v>
+        <v>0.04472379500843863</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.04678427114854539</v>
+        <v>0.04689029379888909</v>
       </c>
     </row>
     <row r="30">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.06818646381806662</v>
+        <v>0.06651130019046714</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.06686642365966716</v>
+        <v>0.06678917320741611</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.06377600657495069</v>
+        <v>0.06199950347110883</v>
       </c>
     </row>
     <row r="31">
@@ -1202,10 +1202,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>2730</v>
+        <v>1941</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>2350</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="8">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4965</v>
+        <v>5499</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9119</v>
+        <v>9159</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16707</v>
+        <v>17935</v>
       </c>
     </row>
     <row r="11">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20513</v>
+        <v>20917</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21855</v>
+        <v>22937</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>36881</v>
+        <v>37642</v>
       </c>
     </row>
     <row r="12">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9742</v>
+        <v>9476</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4263</v>
+        <v>4063</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>16755</v>
+        <v>16259</v>
       </c>
     </row>
     <row r="15">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24953</v>
+        <v>25063</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13115</v>
+        <v>12385</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32978</v>
+        <v>33187</v>
       </c>
     </row>
     <row r="16">
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16948</v>
+        <v>16146</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11203</v>
+        <v>11243</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>31426</v>
+        <v>32290</v>
       </c>
     </row>
     <row r="19">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>44009</v>
+        <v>43088</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>29913</v>
+        <v>29210</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>64561</v>
+        <v>64690</v>
       </c>
     </row>
     <row r="20">
@@ -1473,10 +1473,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>936</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="23">
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7768</v>
+        <v>7601</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4507</v>
+        <v>4227</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>8155</v>
+        <v>8554</v>
       </c>
     </row>
     <row r="24">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>15117</v>
+        <v>14747</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3276</v>
+        <v>3583</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>20519</v>
+        <v>20874</v>
       </c>
     </row>
     <row r="27">
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>30696</v>
+        <v>30038</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>10851</v>
+        <v>11147</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>37188</v>
+        <v>38337</v>
       </c>
     </row>
     <row r="28">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4081</v>
+        <v>3873</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>14066</v>
+        <v>13989</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>20321</v>
+        <v>20801</v>
       </c>
     </row>
     <row r="31">
@@ -1631,13 +1631,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>19901</v>
+        <v>19554</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>28880</v>
+        <v>29866</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>42636</v>
+        <v>43126</v>
       </c>
     </row>
     <row r="32">
@@ -1686,13 +1686,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>8620</v>
+        <v>9035</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>6290</v>
+        <v>6456</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>18091</v>
+        <v>18669</v>
       </c>
     </row>
     <row r="35">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>29606</v>
+        <v>28351</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>18398</v>
+        <v>18122</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>41663</v>
+        <v>40286</v>
       </c>
     </row>
     <row r="36">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>83490</v>
+        <v>82440</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>68534</v>
+        <v>66905</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>159590</v>
+        <v>159951</v>
       </c>
     </row>
     <row r="39">
@@ -1775,13 +1775,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>130592</v>
+        <v>127384</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>100030</v>
+        <v>99914</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>217552</v>
+        <v>211492</v>
       </c>
     </row>
     <row r="40">
